--- a/output/BFA.xlsx
+++ b/output/BFA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>4. Agriculture land area (% of land area)_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4. Agriculture land area (% of land area)_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_y</t>
         </is>
       </c>
     </row>
@@ -487,29 +507,1076 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34.90497076</v>
+      </c>
+      <c r="F2" t="n">
+        <v>34.90497076</v>
+      </c>
+      <c r="G2" t="n">
+        <v>631.72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.944252874</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.944252874</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9365064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9365064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89.29101990392159</v>
+      </c>
+      <c r="M2" t="n">
+        <v>89.29101990392159</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.81359649</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.81359649</v>
+      </c>
+      <c r="G3" t="n">
+        <v>617.54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.175397974</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.175397974</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9598555</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9598555</v>
+      </c>
+      <c r="L3" t="n">
+        <v>89.2597888066454</v>
+      </c>
+      <c r="M3" t="n">
+        <v>89.2597888066454</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34.72222222</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34.72222222</v>
+      </c>
+      <c r="G4" t="n">
+        <v>643.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.12244898</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.12244898</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9840075</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9840075</v>
+      </c>
+      <c r="L4" t="n">
+        <v>89.1420559779208</v>
+      </c>
+      <c r="M4" t="n">
+        <v>89.1420559779208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34.47002924</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.47002924</v>
+      </c>
+      <c r="G5" t="n">
+        <v>636.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.739363285</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.739363285</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10091256</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10091256</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89.1342862767261</v>
+      </c>
+      <c r="M5" t="n">
+        <v>89.1342862767261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.53947368</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34.53947368</v>
+      </c>
+      <c r="G6" t="n">
+        <v>652.66</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.191715976</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.191715976</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10353263</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10353263</v>
+      </c>
+      <c r="L6" t="n">
+        <v>88.61187312443521</v>
+      </c>
+      <c r="M6" t="n">
+        <v>88.61187312443521</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34.90497076</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.90497076</v>
+      </c>
+      <c r="G7" t="n">
+        <v>630.96</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.923850575</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.923850575</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10621210</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10621210</v>
+      </c>
+      <c r="L7" t="n">
+        <v>87.9765284258383</v>
+      </c>
+      <c r="M7" t="n">
+        <v>87.9765284258383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36.00146199</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36.00146199</v>
+      </c>
+      <c r="G8" t="n">
+        <v>622.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.26375661</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.26375661</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10897353</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10897353</v>
+      </c>
+      <c r="L8" t="n">
+        <v>87.3495138091378</v>
+      </c>
+      <c r="M8" t="n">
+        <v>87.3495138091378</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.44005848</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36.44005848</v>
+      </c>
+      <c r="G9" t="n">
+        <v>650.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11201063</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11201063</v>
+      </c>
+      <c r="L9" t="n">
+        <v>86.7292558368304</v>
+      </c>
+      <c r="M9" t="n">
+        <v>86.7292558368304</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36.79093567</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.79093567</v>
+      </c>
+      <c r="G10" t="n">
+        <v>645.97</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.86086086</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.86086086</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11533554</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11533554</v>
+      </c>
+      <c r="L10" t="n">
+        <v>86.0406342966596</v>
+      </c>
+      <c r="M10" t="n">
+        <v>86.0406342966596</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37.14546784</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.14546784</v>
+      </c>
+      <c r="G11" t="n">
+        <v>638.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.29210462</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.29210462</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11882888</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11882888</v>
+      </c>
+      <c r="L11" t="n">
+        <v>85.4136945955063</v>
+      </c>
+      <c r="M11" t="n">
+        <v>85.4136945955063</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>45.13</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="E12" t="n">
+        <v>37.51096491</v>
+      </c>
+      <c r="F12" t="n">
+        <v>37.51096491</v>
+      </c>
+      <c r="G12" t="n">
+        <v>650.46</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.399092429</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.399092429</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12249764</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12249764</v>
+      </c>
+      <c r="L12" t="n">
+        <v>84.7268843578465</v>
+      </c>
+      <c r="M12" t="n">
+        <v>84.7268843578465</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>45.68</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37.86915205</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37.86915205</v>
+      </c>
+      <c r="G13" t="n">
+        <v>661.72</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.469297222</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.469297222</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12632269</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12632269</v>
+      </c>
+      <c r="L13" t="n">
+        <v>84.0494830443798</v>
+      </c>
+      <c r="M13" t="n">
+        <v>84.0494830443798</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>50.21</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>38.22368421</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.22368421</v>
+      </c>
+      <c r="G14" t="n">
+        <v>656.4299999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.10507081</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.10507081</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13030591</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13030591</v>
+      </c>
+      <c r="L14" t="n">
+        <v>83.2575374572868</v>
+      </c>
+      <c r="M14" t="n">
+        <v>83.2575374572868</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38.63669591</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38.63669591</v>
+      </c>
+      <c r="G15" t="n">
+        <v>653.67</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.89383102</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.89383102</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13445977</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13445977</v>
+      </c>
+      <c r="L15" t="n">
+        <v>82.4190023510579</v>
+      </c>
+      <c r="M15" t="n">
+        <v>82.4190023510579</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="E16" t="n">
+        <v>39.04605263</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39.04605263</v>
+      </c>
+      <c r="G16" t="n">
+        <v>676.38</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16.34442013</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.34442013</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13876127</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13876127</v>
+      </c>
+      <c r="L16" t="n">
+        <v>81.5369221517943</v>
+      </c>
+      <c r="M16" t="n">
+        <v>81.5369221517943</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>58.58</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>39.4371345</v>
+      </c>
+      <c r="F17" t="n">
+        <v>39.4371345</v>
+      </c>
+      <c r="G17" t="n">
+        <v>674.84</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13.50482315</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.50482315</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14316242</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14316242</v>
+      </c>
+      <c r="L17" t="n">
+        <v>80.6062235679568</v>
+      </c>
+      <c r="M17" t="n">
+        <v>80.6062235679568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E18" t="n">
+        <v>39.80628655</v>
+      </c>
+      <c r="F18" t="n">
+        <v>39.80628655</v>
+      </c>
+      <c r="G18" t="n">
+        <v>654.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.39592523</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.39592523</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14757074</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14757074</v>
+      </c>
+      <c r="L18" t="n">
+        <v>80.08434327695871</v>
+      </c>
+      <c r="M18" t="n">
+        <v>80.08434327695871</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40.20285088</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40.20285088</v>
+      </c>
+      <c r="G19" t="n">
+        <v>663.33</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.77825818</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.77825818</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15197915</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15197915</v>
+      </c>
+      <c r="L19" t="n">
+        <v>79.8550936458854</v>
+      </c>
+      <c r="M19" t="n">
+        <v>79.8550936458854</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>59.28</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40.61403509</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40.61403509</v>
+      </c>
+      <c r="G20" t="n">
+        <v>657.55</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.87964459</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10.87964459</v>
+      </c>
+      <c r="J20" t="n">
+        <v>15650022</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15650022</v>
+      </c>
+      <c r="L20" t="n">
+        <v>79.4638289484183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>79.4638289484183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>69.87</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="E21" t="n">
+        <v>41.08918129</v>
+      </c>
+      <c r="F21" t="n">
+        <v>41.08918129</v>
+      </c>
+      <c r="G21" t="n">
+        <v>679.65</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11.20661648</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.20661648</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16116845</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16116845</v>
+      </c>
+      <c r="L21" t="n">
+        <v>79.1057971098802</v>
+      </c>
+      <c r="M21" t="n">
+        <v>79.1057971098802</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41.71418129</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41.71418129</v>
+      </c>
+      <c r="G22" t="n">
+        <v>678.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.8615594</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.8615594</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16602651</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16602651</v>
+      </c>
+      <c r="L22" t="n">
+        <v>78.7069055039846</v>
+      </c>
+      <c r="M22" t="n">
+        <v>78.7069055039846</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E23" t="n">
+        <v>42.1747076</v>
+      </c>
+      <c r="F23" t="n">
+        <v>42.1747076</v>
+      </c>
+      <c r="G23" t="n">
+        <v>696.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15.53766559</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.53766559</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17113732</v>
+      </c>
+      <c r="K23" t="n">
+        <v>17113732</v>
+      </c>
+      <c r="L23" t="n">
+        <v>78.2468462981973</v>
+      </c>
+      <c r="M23" t="n">
+        <v>78.2468462981973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="E24" t="n">
+        <v>42.85453216</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42.85453216</v>
+      </c>
+      <c r="G24" t="n">
+        <v>665.55</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.96756139</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17.96756139</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17636408</v>
+      </c>
+      <c r="K24" t="n">
+        <v>17636408</v>
+      </c>
+      <c r="L24" t="n">
+        <v>77.6913242122579</v>
+      </c>
+      <c r="M24" t="n">
+        <v>77.6913242122579</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>99.64</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D25" t="n">
         <v>29.06</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E25" t="n">
         <v>43.31140351</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F25" t="n">
+        <v>43.31140351</v>
+      </c>
+      <c r="G25" t="n">
         <v>656.72</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H25" t="n">
         <v>17.54779742</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I25" t="n">
+        <v>17.54779742</v>
+      </c>
+      <c r="J25" t="n">
         <v>18169842</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K25" t="n">
+        <v>18169842</v>
+      </c>
+      <c r="L25" t="n">
+        <v>77.297957398067</v>
+      </c>
+      <c r="M25" t="n">
         <v>77.297957398067</v>
       </c>
     </row>

--- a/output/BFA.xlsx
+++ b/output/BFA.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>3. Agricultural land area (sq. km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>99.64</v>
       </c>
       <c r="D2" t="n">
-        <v>43.31140351</v>
+        <v>118500.00000336</v>
       </c>
       <c r="E2" t="n">
         <v>748</v>
@@ -516,7 +516,7 @@
         <v>98.08</v>
       </c>
       <c r="D3" t="n">
-        <v>43.80847953</v>
+        <v>119859.99999408</v>
       </c>
       <c r="E3" t="n">
         <v>748</v>
@@ -544,7 +544,7 @@
         <v>102.28</v>
       </c>
       <c r="D4" t="n">
-        <v>44.23245614</v>
+        <v>121019.99999904</v>
       </c>
       <c r="E4" t="n">
         <v>748</v>
@@ -572,7 +572,7 @@
         <v>95.51000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>44.65277778</v>
+        <v>122170.00000608</v>
       </c>
       <c r="E5" t="n">
         <v>748</v>
@@ -600,7 +600,7 @@
         <v>107.71</v>
       </c>
       <c r="D6" t="n">
-        <v>45.36915205</v>
+        <v>124130.0000088</v>
       </c>
       <c r="E6" t="n">
         <v>748</v>
@@ -628,7 +628,7 @@
         <v>116.48</v>
       </c>
       <c r="D7" t="n">
-        <v>45.75657895</v>
+        <v>125190.0000072</v>
       </c>
       <c r="E7" t="n">
         <v>748</v>
@@ -656,7 +656,7 @@
         <v>123.49</v>
       </c>
       <c r="D8" t="n">
-        <v>46.10380117</v>
+        <v>126140.00000112</v>
       </c>
       <c r="E8" t="n">
         <v>748</v>
@@ -684,7 +684,7 @@
         <v>111.24</v>
       </c>
       <c r="D9" t="n">
-        <v>46.56432749</v>
+        <v>127400.00001264</v>
       </c>
       <c r="E9" t="n">
         <v>748</v>

--- a/output/BFA.xlsx
+++ b/output/BFA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3. Agricultural land area (sq. km)</t>
+          <t>1. Mean air temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>10. PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11. Arable land (hectares)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. Livestock production index (2014-2016 = 100)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>14. Fertilizers by Nutrient (phosphate P2O5)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. Population living in slums (% of urban population)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18. Temperature change on land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2. Energy use in agriculture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20. Agriculture land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>21. Employment in agriculture</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3. Land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>4. Agriculture land area (% of land area)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm per year)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6. Permanent cropland (% of land area)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>13. Population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>8. Annual freshwater withdrawals, total (billion cubic meters)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>9. Fertilizers by Nutrient (potash K2O)</t>
         </is>
       </c>
     </row>
@@ -482,26 +557,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>99.64</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>118500.00000336</v>
-      </c>
-      <c r="E2" t="n">
-        <v>748</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.54779742</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18169842</v>
-      </c>
-      <c r="H2" t="n">
-        <v>77.297957398067</v>
-      </c>
+        <v>28.09</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,26 +590,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>98.08</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>119859.99999408</v>
-      </c>
-      <c r="E3" t="n">
-        <v>748</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17.68446616</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18718019</v>
-      </c>
-      <c r="H3" t="n">
-        <v>76.85227967336959</v>
-      </c>
+        <v>28.33</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,26 +623,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>102.28</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>121019.99999904</v>
-      </c>
-      <c r="E4" t="n">
-        <v>748</v>
-      </c>
-      <c r="F4" t="n">
-        <v>23.23747777</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19275498</v>
-      </c>
-      <c r="H4" t="n">
-        <v>76.356724859785</v>
-      </c>
+        <v>28.17</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,26 +656,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="n">
-        <v>95.51000000000001</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>122170.00000608</v>
-      </c>
-      <c r="E5" t="n">
-        <v>748</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.07376596</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19835858</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75.8100471503917</v>
-      </c>
+        <v>28.2</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,26 +689,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>107.71</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>124130.0000088</v>
-      </c>
-      <c r="E6" t="n">
-        <v>748</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18.13724583</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20392723</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75.2887035785019</v>
-      </c>
+        <v>28.26</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,26 +722,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="n">
-        <v>116.48</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>125190.0000072</v>
-      </c>
-      <c r="E7" t="n">
-        <v>748</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.688458283999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20951639</v>
-      </c>
-      <c r="H7" t="n">
-        <v>74.6715418053777</v>
-      </c>
+        <v>28.12</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,26 +755,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" t="n">
-        <v>123.49</v>
-      </c>
+        <v>1956</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>126140.00000112</v>
-      </c>
-      <c r="E8" t="n">
-        <v>748</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.16969687</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21522626</v>
-      </c>
-      <c r="H8" t="n">
-        <v>74.8001390763192</v>
-      </c>
+        <v>28.12</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,26 +788,4085 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>4783259</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>2124000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4852833</v>
+      </c>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R13" t="n">
+        <v>29.74780702</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.013653484</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>2134000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4924497</v>
+      </c>
+      <c r="I14" t="n">
+        <v>110</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>-0.256</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R14" t="n">
+        <v>29.78435673</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>-0.256</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.051546392</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2144000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4998671</v>
+      </c>
+      <c r="I15" t="n">
+        <v>77</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R15" t="n">
+        <v>29.82090643</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.035914179</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>2149000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5076111</v>
+      </c>
+      <c r="I16" t="n">
+        <v>97</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R16" t="n">
+        <v>29.85745614</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.045137273</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>2159000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5157929</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-0.149</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R17" t="n">
+        <v>29.89400585</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>-0.149</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.04631774</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>2170000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5242797</v>
+      </c>
+      <c r="I18" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R18" t="n">
+        <v>29.93421053</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.046082949</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>2180000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5330613</v>
+      </c>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R19" t="n">
+        <v>29.97076023</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.04587156</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>2190000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5422119</v>
+      </c>
+      <c r="I20" t="n">
+        <v>200</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-0.197</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R20" t="n">
+        <v>30.00730994</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>-0.197</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.09132420099999999</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>2202000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5515747</v>
+      </c>
+      <c r="I21" t="n">
+        <v>162</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>294</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R21" t="n">
+        <v>30.05116959</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.207084469</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2216000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5611666</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="M22" t="n">
+        <v>372</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R22" t="n">
+        <v>30.10233918</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.258122744</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5707793</v>
+      </c>
+      <c r="I23" t="n">
+        <v>443</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="M23" t="n">
+        <v>441</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R23" t="n">
+        <v>30.04385965</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.401818182</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>2282000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5805283</v>
+      </c>
+      <c r="I24" t="n">
+        <v>489</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="M24" t="n">
+        <v>584</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R24" t="n">
+        <v>30.34356725</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.482909728</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>2353000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5907742</v>
+      </c>
+      <c r="I25" t="n">
+        <v>98</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M25" t="n">
+        <v>356</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R25" t="n">
+        <v>30.60307018</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.256268593</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>2433000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6018141</v>
+      </c>
+      <c r="I26" t="n">
+        <v>400</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="M26" t="n">
+        <v>700</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R26" t="n">
+        <v>30.89546784</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.493218249</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>2506000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6138444</v>
+      </c>
+      <c r="I27" t="n">
+        <v>400</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="M27" t="n">
+        <v>400</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R27" t="n">
+        <v>31.19883041</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.478850758</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6269765</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-0.306</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2200</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R28" t="n">
+        <v>31.37792398</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>-0.306</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.882352941</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6416569</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3145</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1755</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R29" t="n">
+        <v>31.56067251</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.640384615</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6577779</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4086</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3354</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R30" t="n">
+        <v>31.74342105</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3.726037736</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6749939</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3290</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1960</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R31" t="n">
+        <v>31.92616959</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.67037037</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2745000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6932967</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1248</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R32" t="n">
+        <v>32.10891813</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.569398907</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7123730</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4390</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3075</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R33" t="n">
+        <v>32.29166667</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3.531182796</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>2840000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7321817</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4599</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3310</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R34" t="n">
+        <v>32.4744152</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3.672183099</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>2885000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7531184</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5987</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4070</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R35" t="n">
+        <v>32.65716374</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4.602079723</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2930000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7751476</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4175</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4219</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R36" t="n">
+        <v>32.83991228</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3.909897611</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21.5</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2980000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7979185</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4460</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4736</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R37" t="n">
+        <v>33.02266082</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4.072483221</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>3025000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8207827</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5950</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6780</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R38" t="n">
+        <v>33.20540936</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5.401652893</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.30228</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>3075000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8434996</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4809</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8256</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R39" t="n">
+        <v>33.40643275</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="U39" t="n">
+        <v>5.805528455</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.31456</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>26.3</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>3494000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8663720</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3858</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M40" t="n">
+        <v>7958</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R40" t="n">
+        <v>34.95614035</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4.325414997</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.32684</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>3530000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8895234</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7916</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8159</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R41" t="n">
+        <v>35.0877193</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="U41" t="n">
+        <v>5.835127479</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.33912</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>57.09764127</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3505000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9131361</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7545</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="M42" t="n">
+        <v>9214</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.793</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R42" t="n">
+        <v>34.99634503</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="U42" t="n">
+        <v>6.038801712</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="W42" t="n">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="E43" t="n">
+        <v>55.12355828</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3480000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>44.97</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9365064</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6800</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>89.29101990392159</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9839</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.9387</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R43" t="n">
+        <v>34.90497076</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5.944252874</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.3637</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E44" t="n">
+        <v>53.80648461</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3455000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9598555</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>89.2597888066454</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9306</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.1937</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R44" t="n">
+        <v>34.81359649</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6.175397974</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="E45" t="n">
+        <v>53.02099997</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3430000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9840075</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>89.1420559779208</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.3759</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R45" t="n">
+        <v>34.72222222</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6.12244898</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.395244444</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="E46" t="n">
+        <v>52.64168407</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3361000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10091256</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5889</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>89.1342862767261</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11517</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.5581</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R46" t="n">
+        <v>34.47002924</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="U46" t="n">
+        <v>6.739363285</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.414488889</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="E47" t="n">
+        <v>52.54311661</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3380000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>51.38</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10353263</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6662</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>88.61187312443521</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="M47" t="n">
+        <v>11391</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R47" t="n">
+        <v>34.53947368</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U47" t="n">
+        <v>7.191715976</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.433733333</v>
+      </c>
+      <c r="W47" t="n">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="E48" t="n">
+        <v>53.56411652</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3480000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10621210</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6288</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>87.9765284258383</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11463</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R48" t="n">
+        <v>34.90497076</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="U48" t="n">
+        <v>6.923850575</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.452977778</v>
+      </c>
+      <c r="W48" t="n">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="E49" t="n">
+        <v>55.99939492</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10897353</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9927</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>87.3495138091378</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="M49" t="n">
+        <v>24352</v>
+      </c>
+      <c r="N49" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R49" t="n">
+        <v>36.00146199</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="U49" t="n">
+        <v>11.26375661</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.472222222</v>
+      </c>
+      <c r="W49" t="n">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="E50" t="n">
+        <v>58.90736977</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>57.93</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11201063</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17832</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>86.7292558368304</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="M50" t="n">
+        <v>16400</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R50" t="n">
+        <v>36.44005848</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="U50" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="W50" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="E51" t="n">
+        <v>61.34645908</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3996000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>60.64</v>
+      </c>
+      <c r="H51" t="n">
+        <v>11533554</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18500</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>86.0406342966596</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>16900</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R51" t="n">
+        <v>36.79093567</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="U51" t="n">
+        <v>10.86086086</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="W51" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="E52" t="n">
+        <v>62.37508081</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4091000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>63.65</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11882888</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15103</v>
+      </c>
+      <c r="J52" t="n">
+        <v>82.21151999999999</v>
+      </c>
+      <c r="K52" t="n">
+        <v>85.4136945955063</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9860</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R52" t="n">
+        <v>37.14546784</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8.29210462</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="W52" t="n">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>45.13</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="E53" t="n">
+        <v>62.33796493</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4187000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>67.68000000000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>12249764</v>
+      </c>
+      <c r="I53" t="n">
+        <v>463</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>84.7268843578465</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="M53" t="n">
+        <v>926</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R53" t="n">
+        <v>37.51096491</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.399092429</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="W53" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>45.68</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="E54" t="n">
+        <v>62.22401481</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4283000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="H54" t="n">
+        <v>12632269</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>76.64539000000001</v>
+      </c>
+      <c r="K54" t="n">
+        <v>84.0494830443798</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N54" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R54" t="n">
+        <v>37.86915205</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.469297222</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>50.21</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>62.05790854</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4378000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13030591</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13417</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>83.2575374572868</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="M55" t="n">
+        <v>26620</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R55" t="n">
+        <v>38.22368421</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="U55" t="n">
+        <v>12.10507081</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W55" t="n">
+        <v>12959</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="E56" t="n">
+        <v>61.86432418</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4474000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>82.78</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13445977</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14494</v>
+      </c>
+      <c r="J56" t="n">
+        <v>71.07926999999999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>82.4190023510579</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="M56" t="n">
+        <v>29081</v>
+      </c>
+      <c r="N56" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R56" t="n">
+        <v>38.63669591</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="U56" t="n">
+        <v>12.89383102</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="W56" t="n">
+        <v>14112</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="E57" t="n">
+        <v>61.66793982</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4570000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>86.88</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13876127</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22147</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>81.5369221517943</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="M57" t="n">
+        <v>35435</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R57" t="n">
+        <v>39.04605263</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="U57" t="n">
+        <v>16.34442013</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W57" t="n">
+        <v>17112</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>58.58</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="E58" t="n">
+        <v>61.43723191</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4665000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>14316242</v>
+      </c>
+      <c r="I58" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>65.51314000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>80.6062235679568</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M58" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R58" t="n">
+        <v>39.4371345</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U58" t="n">
+        <v>13.50482315</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W58" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E59" t="n">
+        <v>61.09445868</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4761000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>91.73999999999999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>14757074</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13354</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>80.08434327695871</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="M59" t="n">
+        <v>23580</v>
+      </c>
+      <c r="N59" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R59" t="n">
+        <v>39.80628655</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="U59" t="n">
+        <v>10.39592523</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W59" t="n">
+        <v>12561</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="E60" t="n">
+        <v>60.59497088</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4857000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>95.48999999999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>15197915</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13460</v>
+      </c>
+      <c r="J60" t="n">
+        <v>59.94701</v>
+      </c>
+      <c r="K60" t="n">
+        <v>79.8550936458854</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="M60" t="n">
+        <v>30584</v>
+      </c>
+      <c r="N60" t="n">
+        <v>15.0588</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R60" t="n">
+        <v>40.20285088</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="U60" t="n">
+        <v>11.77825818</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W60" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>59.28</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59.89411929</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4952000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>15650022</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12742</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>79.4638289484183</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="M61" t="n">
+        <v>28392</v>
+      </c>
+      <c r="N61" t="n">
+        <v>33.5808</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R61" t="n">
+        <v>40.61403509</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10.87964459</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W61" t="n">
+        <v>12742</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>69.87</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="E62" t="n">
+        <v>58.94725464</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5048000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>101.07</v>
+      </c>
+      <c r="H62" t="n">
+        <v>16116845</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7726</v>
+      </c>
+      <c r="J62" t="n">
+        <v>54.38089</v>
+      </c>
+      <c r="K62" t="n">
+        <v>79.1057971098802</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="M62" t="n">
+        <v>41122</v>
+      </c>
+      <c r="N62" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R62" t="n">
+        <v>41.08918129</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="U62" t="n">
+        <v>11.20661648</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W62" t="n">
+        <v>7723</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E63" t="n">
+        <v>55.57161301</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5143000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>103.47</v>
+      </c>
+      <c r="H63" t="n">
+        <v>16602651</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15274</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>78.7069055039846</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M63" t="n">
+        <v>29705</v>
+      </c>
+      <c r="N63" t="n">
+        <v>40.32</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R63" t="n">
+        <v>41.71418129</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="U63" t="n">
+        <v>11.8615594</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W63" t="n">
+        <v>16025</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="E64" t="n">
+        <v>61.76290447</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5239000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>101.06</v>
+      </c>
+      <c r="H64" t="n">
+        <v>17113732</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16735.25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>48.81476</v>
+      </c>
+      <c r="K64" t="n">
+        <v>78.2468462981973</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>47525.11</v>
+      </c>
+      <c r="N64" t="n">
+        <v>45</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R64" t="n">
+        <v>42.1747076</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="U64" t="n">
+        <v>15.53766559</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W64" t="n">
+        <v>17141.47</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="E65" t="n">
+        <v>48.60569039</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5335000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>17636408</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23080.43</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>77.6913242122579</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M65" t="n">
+        <v>50680</v>
+      </c>
+      <c r="N65" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R65" t="n">
+        <v>42.85453216</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="U65" t="n">
+        <v>17.96756139</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W65" t="n">
+        <v>22096.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>49.91956418</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5430000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>101.32</v>
+      </c>
+      <c r="H66" t="n">
+        <v>18169842</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21379.37</v>
+      </c>
+      <c r="J66" t="n">
+        <v>43.24863</v>
+      </c>
+      <c r="K66" t="n">
+        <v>77.297957398067</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="M66" t="n">
+        <v>48799.56</v>
+      </c>
+      <c r="N66" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>118500.00000336</v>
+      </c>
+      <c r="P66" t="n">
+        <v>14044916.72845609</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R66" t="n">
+        <v>43.31140351</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="U66" t="n">
+        <v>17.54779742</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W66" t="n">
+        <v>25105.61</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>71.87324446</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5526000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101.28</v>
+      </c>
+      <c r="H67" t="n">
+        <v>18718019</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22526.13</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>76.85227967336959</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="M67" t="n">
+        <v>51085.61</v>
+      </c>
+      <c r="N67" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="O67" t="n">
+        <v>119859.99999408</v>
+      </c>
+      <c r="P67" t="n">
+        <v>14385224.31119446</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R67" t="n">
+        <v>43.80847953</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="U67" t="n">
+        <v>17.68446616</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W67" t="n">
+        <v>24112.62</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>102.28</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>66.09171173</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5622000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>97.39</v>
+      </c>
+      <c r="H68" t="n">
+        <v>19275498</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30393.64</v>
+      </c>
+      <c r="J68" t="n">
+        <v>37.6825</v>
+      </c>
+      <c r="K68" t="n">
+        <v>76.356724859785</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="M68" t="n">
+        <v>67638.22</v>
+      </c>
+      <c r="N68" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="O68" t="n">
+        <v>121019.99999904</v>
+      </c>
+      <c r="P68" t="n">
+        <v>14718138.97321336</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R68" t="n">
+        <v>44.23245614</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="U68" t="n">
+        <v>23.23747777</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W68" t="n">
+        <v>32609.24</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>60.31006928</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5717000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>99.45999999999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>19835858</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25222.34</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>75.8100471503917</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="M69" t="n">
+        <v>58292.15</v>
+      </c>
+      <c r="N69" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="O69" t="n">
+        <v>122170.00000608</v>
+      </c>
+      <c r="P69" t="n">
+        <v>15037573.30248474</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R69" t="n">
+        <v>44.65277778</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="U69" t="n">
+        <v>19.07376596</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W69" t="n">
+        <v>25530.23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>107.71</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>58.1036119</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5813000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>101.23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>20392723</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22853.6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>32.11638</v>
+      </c>
+      <c r="K70" t="n">
+        <v>75.2887035785019</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="M70" t="n">
+        <v>56654.7</v>
+      </c>
+      <c r="N70" t="n">
+        <v>62.28</v>
+      </c>
+      <c r="O70" t="n">
+        <v>124130.0000088</v>
+      </c>
+      <c r="P70" t="n">
+        <v>15353416.77105498</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R70" t="n">
+        <v>45.36915205</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="U70" t="n">
+        <v>18.13724583</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W70" t="n">
+        <v>25923.51</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>116.48</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>50.70572336</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5909000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20951639</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13654.05</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>74.6715418053777</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="M71" t="n">
+        <v>30051.78</v>
+      </c>
+      <c r="N71" t="n">
+        <v>66.95999999999999</v>
+      </c>
+      <c r="O71" t="n">
+        <v>125190.0000072</v>
+      </c>
+      <c r="P71" t="n">
+        <v>15644911.87479682</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R71" t="n">
+        <v>45.75657895</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="U71" t="n">
+        <v>9.688458283999999</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W71" t="n">
+        <v>13543.27</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>58.4706762</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6004000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>92.97</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21522626</v>
+      </c>
+      <c r="I72" t="n">
+        <v>27745.68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>26.55025</v>
+      </c>
+      <c r="K72" t="n">
+        <v>74.8001390763192</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="M72" t="n">
+        <v>50466.13</v>
+      </c>
+      <c r="N72" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="O72" t="n">
+        <v>126140.00000112</v>
+      </c>
+      <c r="P72" t="n">
+        <v>16098954.18087604</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R72" t="n">
+        <v>46.10380117</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="U72" t="n">
+        <v>17.16969687</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W72" t="n">
+        <v>24875.05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="n">
-        <v>111.24</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>111.24</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>95.11</v>
+      </c>
+      <c r="H73" t="n">
+        <v>22100683</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16209.59</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>74.58013935384</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="M73" t="n">
+        <v>42623.65</v>
+      </c>
+      <c r="N73" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="O73" t="n">
         <v>127400.00001264</v>
       </c>
-      <c r="E9" t="n">
-        <v>748</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="P73" t="n">
+        <v>16482720.17955043</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>273600</v>
+      </c>
+      <c r="R73" t="n">
+        <v>46.56432749</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="U73" t="n">
         <v>11.91105574</v>
       </c>
-      <c r="G9" t="n">
-        <v>22100683</v>
-      </c>
-      <c r="H9" t="n">
-        <v>74.58013935384</v>
-      </c>
+      <c r="V73" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="W73" t="n">
+        <v>13824.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>122.69</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>96.48999999999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>22673762</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27283.46</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>74.2148039874909</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="M74" t="n">
+        <v>54208.99</v>
+      </c>
+      <c r="N74" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>23349.91</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>23251485</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
